--- a/2COURSE/2SEM/MathStat/tasks/task5/data.xlsx
+++ b/2COURSE/2SEM/MathStat/tasks/task5/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graev\OneDrive\Рабочий стол\ITMO\2COURSE\2SEM\MathStat\tasks\task5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Doc\ITMO-graevsky\2COURSE\2SEM\MathStat\tasks\task5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4849DE-964C-445D-87E9-72F6257DDCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F316D8-7FF4-4DC6-904B-668C6C01DB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{32CC6188-2725-4CF5-B55F-61B73774C570}"/>
+    <workbookView xWindow="28440" yWindow="0" windowWidth="17265" windowHeight="15780" xr2:uid="{32CC6188-2725-4CF5-B55F-61B73774C570}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -274,7 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -292,7 +292,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -354,7 +354,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -518,7 +518,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="302575007"/>
@@ -580,7 +580,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="302565407"/>
@@ -628,7 +628,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -642,7 +642,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -708,7 +708,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -960,7 +960,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="307439119"/>
@@ -1022,7 +1022,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="307417039"/>
@@ -1064,7 +1064,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1101,7 +1101,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2302,9 +2302,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2342,7 +2342,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2448,7 +2448,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2600,26 +2600,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DCC99B-EDBB-481C-8A26-B6D3FDF71907}">
   <dimension ref="A1:AI57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" customWidth="1"/>
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.33203125" customWidth="1"/>
+    <col min="26" max="26" width="21.28515625" customWidth="1"/>
     <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.6640625" customWidth="1"/>
-    <col min="30" max="32" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.7109375" customWidth="1"/>
+    <col min="30" max="32" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>-98.3</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C11">
         <f>SUM(B2:G2)</f>
         <v>120</v>
@@ -2822,7 +2822,7 @@
         <v>-3017.7</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
@@ -2835,7 +2835,7 @@
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>22</v>
       </c>
@@ -2859,7 +2859,7 @@
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -2887,7 +2887,7 @@
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
     </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -2934,7 +2934,7 @@
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
     </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:35" x14ac:dyDescent="0.25">
       <c r="M18" t="s">
         <v>44</v>
       </c>
@@ -2974,7 +2974,7 @@
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
     </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:35" x14ac:dyDescent="0.25">
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
@@ -2987,7 +2987,7 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
     </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:35" x14ac:dyDescent="0.25">
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
@@ -3000,7 +3000,7 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
     </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>21</v>
       </c>
@@ -3044,7 +3044,7 @@
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
     </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
       <c r="C22">
         <f>-SUM(B2:G2)</f>
         <v>-120</v>
@@ -3085,7 +3085,7 @@
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
     </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:35" x14ac:dyDescent="0.25">
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
@@ -3098,7 +3098,7 @@
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
     </row>
-    <row r="24" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -3114,7 +3114,7 @@
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
     </row>
-    <row r="25" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -3142,7 +3142,7 @@
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
     </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:35" x14ac:dyDescent="0.25">
       <c r="C26" s="1">
         <v>3.5587188612099648E-2</v>
       </c>
@@ -3161,7 +3161,7 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
     </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:35" x14ac:dyDescent="0.25">
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
@@ -3180,7 +3180,7 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
     </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:35" x14ac:dyDescent="0.25">
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
@@ -3201,7 +3201,7 @@
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
     </row>
-    <row r="29" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:35" x14ac:dyDescent="0.25">
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
@@ -3225,7 +3225,7 @@
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
     </row>
-    <row r="30" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:35" x14ac:dyDescent="0.25">
       <c r="Q30" s="2"/>
       <c r="R30" s="2" t="s">
         <v>46</v>
@@ -3248,7 +3248,7 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
     </row>
-    <row r="31" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:35" x14ac:dyDescent="0.25">
       <c r="Q31" s="2"/>
       <c r="R31" s="2" t="s">
         <v>45</v>
@@ -3269,7 +3269,7 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
-    <row r="32" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:35" x14ac:dyDescent="0.25">
       <c r="Q32" s="2"/>
       <c r="R32" s="2">
         <v>2.78</v>
@@ -3290,7 +3290,7 @@
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
     </row>
-    <row r="33" spans="17:35" x14ac:dyDescent="0.3">
+    <row r="33" spans="17:35" x14ac:dyDescent="0.25">
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
@@ -3316,7 +3316,7 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
     </row>
-    <row r="34" spans="17:35" x14ac:dyDescent="0.3">
+    <row r="34" spans="17:35" x14ac:dyDescent="0.25">
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
@@ -3339,7 +3339,7 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
     </row>
-    <row r="35" spans="17:35" x14ac:dyDescent="0.3">
+    <row r="35" spans="17:35" x14ac:dyDescent="0.25">
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
@@ -3358,7 +3358,7 @@
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
     </row>
-    <row r="36" spans="17:35" x14ac:dyDescent="0.3">
+    <row r="36" spans="17:35" x14ac:dyDescent="0.25">
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
@@ -3379,7 +3379,7 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
-    <row r="37" spans="17:35" x14ac:dyDescent="0.3">
+    <row r="37" spans="17:35" x14ac:dyDescent="0.25">
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
@@ -3413,7 +3413,7 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
     </row>
-    <row r="38" spans="17:35" x14ac:dyDescent="0.3">
+    <row r="38" spans="17:35" x14ac:dyDescent="0.25">
       <c r="Y38" s="2"/>
       <c r="Z38" s="2" t="s">
         <v>52</v>
@@ -3446,7 +3446,7 @@
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
     </row>
-    <row r="39" spans="17:35" x14ac:dyDescent="0.3">
+    <row r="39" spans="17:35" x14ac:dyDescent="0.25">
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
@@ -3459,7 +3459,7 @@
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
     </row>
-    <row r="41" spans="17:35" x14ac:dyDescent="0.3">
+    <row r="41" spans="17:35" x14ac:dyDescent="0.25">
       <c r="Z41" s="2" t="s">
         <v>42</v>
       </c>
@@ -3467,13 +3467,13 @@
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
     </row>
-    <row r="42" spans="17:35" x14ac:dyDescent="0.3">
+    <row r="42" spans="17:35" x14ac:dyDescent="0.25">
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
     </row>
-    <row r="43" spans="17:35" x14ac:dyDescent="0.3">
+    <row r="43" spans="17:35" x14ac:dyDescent="0.25">
       <c r="Z43" s="2" t="s">
         <v>25</v>
       </c>
@@ -3483,7 +3483,7 @@
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
     </row>
-    <row r="44" spans="17:35" x14ac:dyDescent="0.3">
+    <row r="44" spans="17:35" x14ac:dyDescent="0.25">
       <c r="Z44" s="2"/>
       <c r="AA44" s="2" t="s">
         <v>49</v>
@@ -3491,19 +3491,19 @@
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
     </row>
-    <row r="45" spans="17:35" x14ac:dyDescent="0.3">
+    <row r="45" spans="17:35" x14ac:dyDescent="0.25">
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
     </row>
-    <row r="46" spans="17:35" x14ac:dyDescent="0.3">
+    <row r="46" spans="17:35" x14ac:dyDescent="0.25">
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
     </row>
-    <row r="47" spans="17:35" x14ac:dyDescent="0.3">
+    <row r="47" spans="17:35" x14ac:dyDescent="0.25">
       <c r="Z47" s="2" t="s">
         <v>26</v>
       </c>
@@ -3513,7 +3513,7 @@
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
     </row>
-    <row r="49" spans="26:32" x14ac:dyDescent="0.3">
+    <row r="49" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z49" s="2" t="s">
         <v>51</v>
       </c>
@@ -3524,7 +3524,7 @@
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
     </row>
-    <row r="50" spans="26:32" x14ac:dyDescent="0.3">
+    <row r="50" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
@@ -3533,7 +3533,7 @@
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
     </row>
-    <row r="51" spans="26:32" x14ac:dyDescent="0.3">
+    <row r="51" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z51" s="2" t="s">
         <v>37</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="26:32" x14ac:dyDescent="0.3">
+    <row r="52" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z52" s="2" t="s">
         <v>53</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>-42.582265717674936</v>
       </c>
     </row>
-    <row r="53" spans="26:32" x14ac:dyDescent="0.3">
+    <row r="53" spans="26:32" x14ac:dyDescent="0.25">
       <c r="Z53" s="2" t="s">
         <v>54</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>-42.582265717674936</v>
       </c>
     </row>
-    <row r="57" spans="26:32" x14ac:dyDescent="0.3">
+    <row r="57" spans="26:32" x14ac:dyDescent="0.25">
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
     </row>

--- a/2COURSE/2SEM/MathStat/tasks/task5/data.xlsx
+++ b/2COURSE/2SEM/MathStat/tasks/task5/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Doc\ITMO-graevsky\2COURSE\2SEM\MathStat\tasks\task5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graev\OneDrive\Рабочий стол\ITMO\2COURSE\2SEM\MathStat\tasks\task5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F316D8-7FF4-4DC6-904B-668C6C01DB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F3E8E6-6606-422D-8772-1E70C2EA7FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28440" yWindow="0" windowWidth="17265" windowHeight="15780" xr2:uid="{32CC6188-2725-4CF5-B55F-61B73774C570}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{32CC6188-2725-4CF5-B55F-61B73774C570}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>Нужно</t>
   </si>
@@ -221,6 +221,24 @@
   </si>
   <si>
     <t>\ov{y}+\gamma\sigma(y)</t>
+  </si>
+  <si>
+    <t>21,044-2,78*sqrt{0,007}</t>
+  </si>
+  <si>
+    <t>&lt;a_0&lt;</t>
+  </si>
+  <si>
+    <t>21,044+2,78*sqrt{0.007}</t>
+  </si>
+  <si>
+    <t>-1,871-2,78*sqrt{3,243}</t>
+  </si>
+  <si>
+    <t>&lt;a_1&lt;</t>
+  </si>
+  <si>
+    <t>-1,871+2,78*sqrt{3,243}</t>
   </si>
 </sst>
 </file>
@@ -266,15 +284,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -292,7 +313,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -354,7 +375,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -518,7 +539,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="302575007"/>
@@ -580,7 +601,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="302565407"/>
@@ -628,7 +649,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -642,7 +663,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -708,7 +729,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -960,7 +981,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="307439119"/>
@@ -1022,7 +1043,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="307417039"/>
@@ -1064,7 +1085,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1101,7 +1122,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2302,9 +2323,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2342,7 +2363,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2448,7 +2469,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2598,28 +2619,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DCC99B-EDBB-481C-8A26-B6D3FDF71907}">
-  <dimension ref="A1:AI57"/>
+  <dimension ref="A1:AO57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="E31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W47" sqref="W47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" customWidth="1"/>
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.28515625" customWidth="1"/>
+    <col min="26" max="26" width="21.33203125" customWidth="1"/>
     <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.7109375" customWidth="1"/>
-    <col min="30" max="32" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.6640625" customWidth="1"/>
+    <col min="30" max="32" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -2627,7 +2648,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2662,7 +2683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2691,7 +2712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2726,7 +2747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2758,7 +2779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2776,7 +2797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2805,7 +2826,7 @@
         <v>-98.3</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C11">
         <f>SUM(B2:G2)</f>
         <v>120</v>
@@ -2822,7 +2843,7 @@
         <v>-3017.7</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
@@ -2835,7 +2856,7 @@
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>22</v>
       </c>
@@ -2859,7 +2880,7 @@
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -2887,7 +2908,7 @@
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
     </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -2934,7 +2955,7 @@
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
     </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:35" x14ac:dyDescent="0.3">
       <c r="M18" t="s">
         <v>44</v>
       </c>
@@ -2974,7 +2995,7 @@
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
     </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:35" x14ac:dyDescent="0.3">
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
@@ -2987,7 +3008,7 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
     </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:35" x14ac:dyDescent="0.3">
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
@@ -3000,7 +3021,7 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
     </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>21</v>
       </c>
@@ -3044,7 +3065,7 @@
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
     </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:35" x14ac:dyDescent="0.3">
       <c r="C22">
         <f>-SUM(B2:G2)</f>
         <v>-120</v>
@@ -3085,7 +3106,7 @@
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
     </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:35" x14ac:dyDescent="0.3">
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
@@ -3098,7 +3119,7 @@
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
     </row>
-    <row r="24" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -3114,7 +3135,7 @@
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
     </row>
-    <row r="25" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -3142,7 +3163,7 @@
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
     </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:35" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
         <v>3.5587188612099648E-2</v>
       </c>
@@ -3161,7 +3182,7 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
     </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:35" x14ac:dyDescent="0.3">
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
@@ -3180,7 +3201,7 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
     </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:35" x14ac:dyDescent="0.3">
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
@@ -3201,7 +3222,7 @@
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
     </row>
-    <row r="29" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:35" x14ac:dyDescent="0.3">
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
@@ -3225,7 +3246,7 @@
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
     </row>
-    <row r="30" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:35" x14ac:dyDescent="0.3">
       <c r="Q30" s="2"/>
       <c r="R30" s="2" t="s">
         <v>46</v>
@@ -3248,7 +3269,7 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
     </row>
-    <row r="31" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:35" x14ac:dyDescent="0.3">
       <c r="Q31" s="2"/>
       <c r="R31" s="2" t="s">
         <v>45</v>
@@ -3269,7 +3290,7 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
-    <row r="32" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:35" x14ac:dyDescent="0.3">
       <c r="Q32" s="2"/>
       <c r="R32" s="2">
         <v>2.78</v>
@@ -3290,7 +3311,7 @@
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
     </row>
-    <row r="33" spans="17:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="17:35" x14ac:dyDescent="0.3">
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
@@ -3316,7 +3337,7 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
     </row>
-    <row r="34" spans="17:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="17:35" x14ac:dyDescent="0.3">
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
@@ -3339,7 +3360,7 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
     </row>
-    <row r="35" spans="17:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="17:35" x14ac:dyDescent="0.3">
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
@@ -3358,7 +3379,7 @@
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
     </row>
-    <row r="36" spans="17:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="17:35" x14ac:dyDescent="0.3">
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
@@ -3379,7 +3400,7 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
-    <row r="37" spans="17:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="17:35" x14ac:dyDescent="0.3">
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
@@ -3413,7 +3434,7 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
     </row>
-    <row r="38" spans="17:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="17:35" x14ac:dyDescent="0.3">
       <c r="Y38" s="2"/>
       <c r="Z38" s="2" t="s">
         <v>52</v>
@@ -3446,7 +3467,7 @@
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
     </row>
-    <row r="39" spans="17:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="17:35" x14ac:dyDescent="0.3">
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
@@ -3459,7 +3480,7 @@
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
     </row>
-    <row r="41" spans="17:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="17:35" x14ac:dyDescent="0.3">
       <c r="Z41" s="2" t="s">
         <v>42</v>
       </c>
@@ -3467,13 +3488,13 @@
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
     </row>
-    <row r="42" spans="17:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="17:35" x14ac:dyDescent="0.3">
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
     </row>
-    <row r="43" spans="17:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="17:35" x14ac:dyDescent="0.3">
       <c r="Z43" s="2" t="s">
         <v>25</v>
       </c>
@@ -3482,28 +3503,54 @@
       </c>
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
-    </row>
-    <row r="44" spans="17:35" x14ac:dyDescent="0.25">
+      <c r="AD43" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="17:35" x14ac:dyDescent="0.3">
       <c r="Z44" s="2"/>
       <c r="AA44" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
-    </row>
-    <row r="45" spans="17:35" x14ac:dyDescent="0.25">
+      <c r="AE44">
+        <v>20.811</v>
+      </c>
+      <c r="AG44">
+        <v>21.277000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="17:35" x14ac:dyDescent="0.3">
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
     </row>
-    <row r="46" spans="17:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="17:35" x14ac:dyDescent="0.3">
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
-      <c r="AC46" s="2"/>
-    </row>
-    <row r="47" spans="17:35" x14ac:dyDescent="0.25">
+      <c r="AC46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD46" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG46" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="17:35" x14ac:dyDescent="0.3">
       <c r="Z47" s="2" t="s">
         <v>26</v>
       </c>
@@ -3512,8 +3559,17 @@
       </c>
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
-    </row>
-    <row r="49" spans="26:32" x14ac:dyDescent="0.25">
+      <c r="AE47">
+        <v>-6.8769999999999998</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG47">
+        <v>3.1349999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="26:41" x14ac:dyDescent="0.3">
       <c r="Z49" s="2" t="s">
         <v>51</v>
       </c>
@@ -3524,7 +3580,7 @@
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
     </row>
-    <row r="50" spans="26:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="26:41" x14ac:dyDescent="0.3">
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
@@ -3532,8 +3588,16 @@
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
-    </row>
-    <row r="51" spans="26:32" x14ac:dyDescent="0.25">
+      <c r="AH50" s="6"/>
+      <c r="AI50" s="6"/>
+      <c r="AJ50" s="6"/>
+      <c r="AK50" s="6"/>
+      <c r="AL50" s="6"/>
+      <c r="AM50" s="6"/>
+      <c r="AN50" s="6"/>
+      <c r="AO50" s="6"/>
+    </row>
+    <row r="51" spans="26:41" x14ac:dyDescent="0.3">
       <c r="Z51" s="2" t="s">
         <v>37</v>
       </c>
@@ -3561,8 +3625,16 @@
         <f>AF37</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="52" spans="26:32" x14ac:dyDescent="0.25">
+      <c r="AH51" s="6"/>
+      <c r="AI51" s="6"/>
+      <c r="AJ51" s="6"/>
+      <c r="AK51" s="6"/>
+      <c r="AL51" s="6"/>
+      <c r="AM51" s="6"/>
+      <c r="AN51" s="6"/>
+      <c r="AO51" s="6"/>
+    </row>
+    <row r="52" spans="26:41" x14ac:dyDescent="0.3">
       <c r="Z52" s="2" t="s">
         <v>53</v>
       </c>
@@ -3590,8 +3662,16 @@
         <f t="shared" si="8"/>
         <v>-42.582265717674936</v>
       </c>
-    </row>
-    <row r="53" spans="26:32" x14ac:dyDescent="0.25">
+      <c r="AH52" s="6"/>
+      <c r="AI52" s="7"/>
+      <c r="AJ52" s="7"/>
+      <c r="AK52" s="7"/>
+      <c r="AL52" s="7"/>
+      <c r="AM52" s="7"/>
+      <c r="AN52" s="7"/>
+      <c r="AO52" s="6"/>
+    </row>
+    <row r="53" spans="26:41" x14ac:dyDescent="0.3">
       <c r="Z53" s="2" t="s">
         <v>54</v>
       </c>
@@ -3619,8 +3699,36 @@
         <f t="shared" si="9"/>
         <v>-42.582265717674936</v>
       </c>
-    </row>
-    <row r="57" spans="26:32" x14ac:dyDescent="0.25">
+      <c r="AH53" s="6"/>
+      <c r="AI53" s="7"/>
+      <c r="AJ53" s="7"/>
+      <c r="AK53" s="7"/>
+      <c r="AL53" s="7"/>
+      <c r="AM53" s="7"/>
+      <c r="AN53" s="7"/>
+      <c r="AO53" s="6"/>
+    </row>
+    <row r="54" spans="26:41" x14ac:dyDescent="0.3">
+      <c r="AH54" s="6"/>
+      <c r="AI54" s="6"/>
+      <c r="AJ54" s="6"/>
+      <c r="AK54" s="6"/>
+      <c r="AL54" s="6"/>
+      <c r="AM54" s="6"/>
+      <c r="AN54" s="6"/>
+      <c r="AO54" s="6"/>
+    </row>
+    <row r="55" spans="26:41" x14ac:dyDescent="0.3">
+      <c r="AH55" s="6"/>
+      <c r="AI55" s="6"/>
+      <c r="AJ55" s="6"/>
+      <c r="AK55" s="6"/>
+      <c r="AL55" s="6"/>
+      <c r="AM55" s="6"/>
+      <c r="AN55" s="6"/>
+      <c r="AO55" s="6"/>
+    </row>
+    <row r="57" spans="26:41" x14ac:dyDescent="0.3">
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
     </row>

--- a/2COURSE/2SEM/MathStat/tasks/task5/data.xlsx
+++ b/2COURSE/2SEM/MathStat/tasks/task5/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graev\OneDrive\Рабочий стол\ITMO\2COURSE\2SEM\MathStat\tasks\task5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F3E8E6-6606-422D-8772-1E70C2EA7FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4771B085-89F5-46B0-8BC9-6992669B3737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{32CC6188-2725-4CF5-B55F-61B73774C570}"/>
   </bookViews>
@@ -223,22 +223,22 @@
     <t>\ov{y}+\gamma\sigma(y)</t>
   </si>
   <si>
-    <t>21,044-2,78*sqrt{0,007}</t>
-  </si>
-  <si>
-    <t>&lt;a_0&lt;</t>
-  </si>
-  <si>
-    <t>21,044+2,78*sqrt{0.007}</t>
-  </si>
-  <si>
-    <t>-1,871-2,78*sqrt{3,243}</t>
-  </si>
-  <si>
-    <t>&lt;a_1&lt;</t>
-  </si>
-  <si>
-    <t>-1,871+2,78*sqrt{3,243}</t>
+    <t>21,044-2,78*sqrt{3,243}</t>
+  </si>
+  <si>
+    <t>&lt; a_0 &lt;</t>
+  </si>
+  <si>
+    <t>21,044+2,78*sqrt{3,243}</t>
+  </si>
+  <si>
+    <t>-1,871-2,78*sqrt{0,007}</t>
+  </si>
+  <si>
+    <t>&lt; a_1 &lt;</t>
+  </si>
+  <si>
+    <t>-1,871+2,78*sqrt{0,007}</t>
   </si>
 </sst>
 </file>
@@ -284,15 +284,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -800,22 +798,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>-13.547233055143098</c:v>
+                  <c:v>7.6647607229927202</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.4125148279952384</c:v>
+                  <c:v>-4.2417189059098126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-12.64062870699879</c:v>
+                  <c:v>-14.867358475904695</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-21.997390272835091</c:v>
+                  <c:v>-24.280406841170681</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-31.354151838671385</c:v>
+                  <c:v>-34.18335591658596</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-42.582265717674936</c:v>
+                  <c:v>-46.417073439862996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -888,22 +886,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>36.92113578349425</c:v>
+                  <c:v>15.70914200535843</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.4125148279952384</c:v>
+                  <c:v>1.4166892499193358</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-12.64062870699879</c:v>
+                  <c:v>-10.413898938092885</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-21.997390272835091</c:v>
+                  <c:v>-19.714373704499501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-31.354151838671385</c:v>
+                  <c:v>-28.52494776075681</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-42.582265717674936</c:v>
+                  <c:v>-38.747457995486876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2619,10 +2617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DCC99B-EDBB-481C-8A26-B6D3FDF71907}">
-  <dimension ref="A1:AO57"/>
+  <dimension ref="A1:AI57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W47" sqref="W47"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y51" sqref="Y51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3140,11 +3138,11 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" cm="1">
-        <f t="array" ref="C25:D26">C10:D11*D17</f>
-        <v>1.7793594306049823E-3</v>
+        <f t="array" ref="C25:D26">C21:D22*D17</f>
+        <v>0.87841043890865966</v>
       </c>
       <c r="D25" s="1">
-        <v>3.5587188612099648E-2</v>
+        <v>-3.5587188612099648E-2</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2" t="s">
@@ -3165,10 +3163,10 @@
     </row>
     <row r="26" spans="2:35" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
-        <v>3.5587188612099648E-2</v>
+        <v>-3.5587188612099648E-2</v>
       </c>
       <c r="D26" s="1">
-        <v>0.87841043890865966</v>
+        <v>1.7793594306049823E-3</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
@@ -3324,10 +3322,10 @@
       </c>
       <c r="AA33" s="3" cm="1">
         <f t="array" ref="AA33:AB34">AA29*C25:D26</f>
-        <v>6.5689971420490349E-3</v>
+        <v>3.2428949224582073</v>
       </c>
       <c r="AB33" s="3">
-        <v>0.1313799428409807</v>
+        <v>-0.1313799428409807</v>
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
@@ -3347,10 +3345,10 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="3">
-        <v>0.1313799428409807</v>
+        <v>-0.1313799428409807</v>
       </c>
       <c r="AB34" s="3">
-        <v>3.2428949224582073</v>
+        <v>6.5689971420490349E-3</v>
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
@@ -3441,27 +3439,27 @@
       </c>
       <c r="AA38" s="3">
         <f>$AA$33+2*$AB$33*AA37+$AB$34*AA37*AA37</f>
-        <v>82.392741487007044</v>
+        <v>2.0933204225996263</v>
       </c>
       <c r="AB38" s="3">
         <f>$AA$33+2*$AB$33*AB37+$AB$34*AB37*AB37</f>
-        <v>470.13655645930743</v>
+        <v>1.0357118827297316</v>
       </c>
       <c r="AC38" s="3">
         <f t="shared" ref="AC38:AF38" si="6">$AA$33+2*$AB$33*AC37+$AB$34*AC37*AC37</f>
-        <v>1055.4342018158763</v>
+        <v>0.64157205420678887</v>
       </c>
       <c r="AD38" s="3">
         <f t="shared" si="6"/>
-        <v>1721.5414603482191</v>
+        <v>0.67441703991703461</v>
       </c>
       <c r="AE38" s="3">
         <f t="shared" si="6"/>
-        <v>2549.7934650034717</v>
+        <v>1.035711882729732</v>
       </c>
       <c r="AF38" s="3">
         <f t="shared" si="6"/>
-        <v>3757.7269354720165</v>
+        <v>1.9028195054802035</v>
       </c>
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
@@ -3521,10 +3519,13 @@
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
       <c r="AE44">
-        <v>20.811</v>
+        <v>16.038</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>56</v>
       </c>
       <c r="AG44">
-        <v>21.277000000000001</v>
+        <v>26.05</v>
       </c>
     </row>
     <row r="45" spans="17:35" x14ac:dyDescent="0.3">
@@ -3537,18 +3538,7 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
-      <c r="AC46" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD46" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF46" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG46" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="AC46" s="2"/>
     </row>
     <row r="47" spans="17:35" x14ac:dyDescent="0.3">
       <c r="Z47" s="2" t="s">
@@ -3559,17 +3549,28 @@
       </c>
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
-      <c r="AE47">
-        <v>-6.8769999999999998</v>
+      <c r="AD47" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="AF47" t="s">
         <v>59</v>
       </c>
-      <c r="AG47">
-        <v>3.1349999999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="26:41" x14ac:dyDescent="0.3">
+      <c r="AG47" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="17:35" x14ac:dyDescent="0.3">
+      <c r="AE48">
+        <v>-2.1040000000000001</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG48">
+        <v>-1.6379999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="26:32" x14ac:dyDescent="0.3">
       <c r="Z49" s="2" t="s">
         <v>51</v>
       </c>
@@ -3580,7 +3581,7 @@
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
     </row>
-    <row r="50" spans="26:41" x14ac:dyDescent="0.3">
+    <row r="50" spans="26:32" x14ac:dyDescent="0.3">
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
@@ -3588,16 +3589,8 @@
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
-      <c r="AH50" s="6"/>
-      <c r="AI50" s="6"/>
-      <c r="AJ50" s="6"/>
-      <c r="AK50" s="6"/>
-      <c r="AL50" s="6"/>
-      <c r="AM50" s="6"/>
-      <c r="AN50" s="6"/>
-      <c r="AO50" s="6"/>
-    </row>
-    <row r="51" spans="26:41" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="26:32" x14ac:dyDescent="0.3">
       <c r="Z51" s="2" t="s">
         <v>37</v>
       </c>
@@ -3625,110 +3618,66 @@
         <f>AF37</f>
         <v>34</v>
       </c>
-      <c r="AH51" s="6"/>
-      <c r="AI51" s="6"/>
-      <c r="AJ51" s="6"/>
-      <c r="AK51" s="6"/>
-      <c r="AL51" s="6"/>
-      <c r="AM51" s="6"/>
-      <c r="AN51" s="6"/>
-      <c r="AO51" s="6"/>
-    </row>
-    <row r="52" spans="26:41" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="26:32" x14ac:dyDescent="0.3">
       <c r="Z52" s="2" t="s">
         <v>53</v>
       </c>
       <c r="AA52" s="3">
-        <f>AA18-R32*SQRT(AA38)</f>
-        <v>-13.547233055143098</v>
+        <f>AA18-$R$32*SQRT(AA38)</f>
+        <v>7.6647607229927202</v>
       </c>
       <c r="AB52" s="3">
-        <f t="shared" ref="AB52:AF52" si="8">AB18-S32*SQRT(AB38)</f>
-        <v>-1.4125148279952384</v>
+        <f t="shared" ref="AB52:AF52" si="8">AB18-$R$32*SQRT(AB38)</f>
+        <v>-4.2417189059098126</v>
       </c>
       <c r="AC52" s="3">
         <f t="shared" si="8"/>
-        <v>-12.64062870699879</v>
+        <v>-14.867358475904695</v>
       </c>
       <c r="AD52" s="3">
         <f t="shared" si="8"/>
-        <v>-21.997390272835091</v>
+        <v>-24.280406841170681</v>
       </c>
       <c r="AE52" s="3">
         <f t="shared" si="8"/>
-        <v>-31.354151838671385</v>
+        <v>-34.18335591658596</v>
       </c>
       <c r="AF52" s="3">
         <f t="shared" si="8"/>
-        <v>-42.582265717674936</v>
-      </c>
-      <c r="AH52" s="6"/>
-      <c r="AI52" s="7"/>
-      <c r="AJ52" s="7"/>
-      <c r="AK52" s="7"/>
-      <c r="AL52" s="7"/>
-      <c r="AM52" s="7"/>
-      <c r="AN52" s="7"/>
-      <c r="AO52" s="6"/>
-    </row>
-    <row r="53" spans="26:41" x14ac:dyDescent="0.3">
+        <v>-46.417073439862996</v>
+      </c>
+    </row>
+    <row r="53" spans="26:32" x14ac:dyDescent="0.3">
       <c r="Z53" s="2" t="s">
         <v>54</v>
       </c>
       <c r="AA53" s="3">
-        <f>AA18+R32*SQRT(AA38)</f>
-        <v>36.92113578349425</v>
+        <f>AA18+$R$32*SQRT(AA38)</f>
+        <v>15.70914200535843</v>
       </c>
       <c r="AB53" s="3">
-        <f t="shared" ref="AB53:AF53" si="9">AB18+S32*SQRT(AB38)</f>
-        <v>-1.4125148279952384</v>
+        <f t="shared" ref="AB53:AF53" si="9">AB18+$R$32*SQRT(AB38)</f>
+        <v>1.4166892499193358</v>
       </c>
       <c r="AC53" s="3">
         <f t="shared" si="9"/>
-        <v>-12.64062870699879</v>
+        <v>-10.413898938092885</v>
       </c>
       <c r="AD53" s="3">
         <f t="shared" si="9"/>
-        <v>-21.997390272835091</v>
+        <v>-19.714373704499501</v>
       </c>
       <c r="AE53" s="3">
         <f t="shared" si="9"/>
-        <v>-31.354151838671385</v>
+        <v>-28.52494776075681</v>
       </c>
       <c r="AF53" s="3">
         <f t="shared" si="9"/>
-        <v>-42.582265717674936</v>
-      </c>
-      <c r="AH53" s="6"/>
-      <c r="AI53" s="7"/>
-      <c r="AJ53" s="7"/>
-      <c r="AK53" s="7"/>
-      <c r="AL53" s="7"/>
-      <c r="AM53" s="7"/>
-      <c r="AN53" s="7"/>
-      <c r="AO53" s="6"/>
-    </row>
-    <row r="54" spans="26:41" x14ac:dyDescent="0.3">
-      <c r="AH54" s="6"/>
-      <c r="AI54" s="6"/>
-      <c r="AJ54" s="6"/>
-      <c r="AK54" s="6"/>
-      <c r="AL54" s="6"/>
-      <c r="AM54" s="6"/>
-      <c r="AN54" s="6"/>
-      <c r="AO54" s="6"/>
-    </row>
-    <row r="55" spans="26:41" x14ac:dyDescent="0.3">
-      <c r="AH55" s="6"/>
-      <c r="AI55" s="6"/>
-      <c r="AJ55" s="6"/>
-      <c r="AK55" s="6"/>
-      <c r="AL55" s="6"/>
-      <c r="AM55" s="6"/>
-      <c r="AN55" s="6"/>
-      <c r="AO55" s="6"/>
-    </row>
-    <row r="57" spans="26:41" x14ac:dyDescent="0.3">
+        <v>-38.747457995486876</v>
+      </c>
+    </row>
+    <row r="57" spans="26:32" x14ac:dyDescent="0.3">
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
     </row>

--- a/2COURSE/2SEM/MathStat/tasks/task5/data.xlsx
+++ b/2COURSE/2SEM/MathStat/tasks/task5/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graev\OneDrive\Рабочий стол\ITMO\2COURSE\2SEM\MathStat\tasks\task5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4771B085-89F5-46B0-8BC9-6992669B3737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA93EBE-2198-412B-8958-22A40CDC9812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{32CC6188-2725-4CF5-B55F-61B73774C570}"/>
   </bookViews>
@@ -2619,8 +2619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DCC99B-EDBB-481C-8A26-B6D3FDF71907}">
   <dimension ref="A1:AI57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y51" sqref="Y51"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/2COURSE/2SEM/MathStat/tasks/task5/data.xlsx
+++ b/2COURSE/2SEM/MathStat/tasks/task5/data.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graev\OneDrive\Рабочий стол\ITMO\2COURSE\2SEM\MathStat\tasks\task5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graevsky/Desktop/ITMO/2COURSE/2SEM/MathStat/tasks/task5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA93EBE-2198-412B-8958-22A40CDC9812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869F4EA6-6E80-2E4C-AACA-E255B24A9679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{32CC6188-2725-4CF5-B55F-61B73774C570}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{32CC6188-2725-4CF5-B55F-61B73774C570}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,14 +35,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="99">
   <si>
     <t>Нужно</t>
   </si>
@@ -239,6 +240,120 @@
   </si>
   <si>
     <t>-1,871+2,78*sqrt{0,007}</t>
+  </si>
+  <si>
+    <t>over{y]</t>
+  </si>
+  <si>
+    <t>over{x}</t>
+  </si>
+  <si>
+    <t>over{xy}</t>
+  </si>
+  <si>
+    <t>over{x^2}</t>
+  </si>
+  <si>
+    <t>S^2_x</t>
+  </si>
+  <si>
+    <t>s_x</t>
+  </si>
+  <si>
+    <t>S^2_y</t>
+  </si>
+  <si>
+    <t>y*y</t>
+  </si>
+  <si>
+    <t>over{y^2}</t>
+  </si>
+  <si>
+    <t>s_y</t>
+  </si>
+  <si>
+    <t>l_xy</t>
+  </si>
+  <si>
+    <t>11,1=a_0+a_1*5</t>
+  </si>
+  <si>
+    <t>0.5=a_0+a_1*12</t>
+  </si>
+  <si>
+    <t>-14.9=a_0+a_1*18</t>
+  </si>
+  <si>
+    <t>\-20,2=a_0+a_1*23</t>
+  </si>
+  <si>
+    <t>-32.8=a_0+a_1*28</t>
+  </si>
+  <si>
+    <t>-42=a_0+a_1*34</t>
+  </si>
+  <si>
+    <t>Для первой функции</t>
+  </si>
+  <si>
+    <t>-3,3=3a_0+a_1*35</t>
+  </si>
+  <si>
+    <t>-95=3a_0+a_1*85</t>
+  </si>
+  <si>
+    <t>y=20,297-1.834x</t>
+  </si>
+  <si>
+    <t>3 параметра</t>
+  </si>
+  <si>
+    <t>x^3</t>
+  </si>
+  <si>
+    <t>x^4</t>
+  </si>
+  <si>
+    <t>x^2*y</t>
+  </si>
+  <si>
+    <t>b=</t>
+  </si>
+  <si>
+    <t>P-1</t>
+  </si>
+  <si>
+    <t>y теор</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>delta^2</t>
+  </si>
+  <si>
+    <t>smin</t>
+  </si>
+  <si>
+    <t>Фишера</t>
+  </si>
+  <si>
+    <t>Fкр =</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>a1</t>
   </si>
 </sst>
 </file>
@@ -323,31 +438,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Оценка функции регрессии</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -381,16 +471,14 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -412,7 +500,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$AA$17:$AF$17</c:f>
+              <c:f>Лист1!$B$46:$G$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -439,35 +527,135 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$AA$18:$AF$18</c:f>
+              <c:f>Лист1!$B$47:$G$47</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>11.686951364175576</c:v>
+                  <c:v>11.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.4125148279952384</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-12.64062870699879</c:v>
+                  <c:v>-14.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-21.997390272835091</c:v>
+                  <c:v>-20.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-31.354151838671385</c:v>
+                  <c:v>-32.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-42.582265717674936</c:v>
+                  <c:v>-42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B99D-475C-A9EA-3F4CF9B68CE9}"/>
+              <c16:uniqueId val="{00000000-5596-C542-B57B-C3F5ADF62554}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$E$60:$E$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$F$60:$F$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11.127000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.7110000000000021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-12.715</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-21.885000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-31.055000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-21.885000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-31.055000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-42.058999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5596-C542-B57B-C3F5ADF62554}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -479,11 +667,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="302565407"/>
-        <c:axId val="302575007"/>
+        <c:axId val="975872720"/>
+        <c:axId val="695291152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="302565407"/>
+        <c:axId val="975872720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -540,12 +728,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302575007"/>
+        <c:crossAx val="695291152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="302575007"/>
+        <c:axId val="695291152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -565,7 +753,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -602,7 +790,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302565407"/>
+        <c:crossAx val="975872720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -673,35 +861,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>График</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> доверительного интервала</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -735,16 +894,14 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -766,7 +923,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$AA$51:$AF$51</c:f>
+              <c:f>Лист1!$B$46:$G$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -793,35 +950,35 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$AA$52:$AF$52</c:f>
+              <c:f>Лист1!$B$47:$G$47</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.6647607229927202</c:v>
+                  <c:v>11.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.2417189059098126</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-14.867358475904695</c:v>
+                  <c:v>-14.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-24.280406841170681</c:v>
+                  <c:v>-20.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-34.18335591658596</c:v>
+                  <c:v>-32.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-46.417073439862996</c:v>
+                  <c:v>-42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E323-4E1F-8FBA-BFF9536B15E7}"/>
+              <c16:uniqueId val="{00000000-6913-5648-ACB7-CE6892236B57}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -829,7 +986,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -854,7 +1011,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$AA$51:$AF$51</c:f>
+              <c:f>Лист1!$B$73:$G$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -881,35 +1038,35 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$AA$53:$AF$53</c:f>
+              <c:f>Лист1!$I$92:$N$92</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>15.70914200535843</c:v>
+                  <c:v>11.737850000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4166892499193358</c:v>
+                  <c:v>-1.4265039999999973</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-10.413898938092885</c:v>
+                  <c:v>-12.676383999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-19.714373704499501</c:v>
+                  <c:v>-22.027413999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-28.52494776075681</c:v>
+                  <c:v>-31.356743999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-38.747457995486876</c:v>
+                  <c:v>-42.523295999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E323-4E1F-8FBA-BFF9536B15E7}"/>
+              <c16:uniqueId val="{00000001-6913-5648-ACB7-CE6892236B57}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -921,11 +1078,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="307417039"/>
-        <c:axId val="307439119"/>
+        <c:axId val="975872720"/>
+        <c:axId val="695291152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="307417039"/>
+        <c:axId val="975872720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -982,12 +1139,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307439119"/>
+        <c:crossAx val="695291152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="307439119"/>
+        <c:axId val="695291152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1007,7 +1164,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1044,7 +1201,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307417039"/>
+        <c:crossAx val="975872720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1056,10 +1213,552 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>График доверительного интервала</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Лист1!$AA$51:$AF$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Лист1!$AA$52:$AF$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.6647607229927202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.2417189059098126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-14.867358475904695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-24.280406841170681</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-34.18335591658596</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-46.417073439862996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-70EF-D440-8A53-CBAFEE12CA25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Лист1!$AA$51:$AF$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Лист1!$AA$53:$AF$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15.70914200535843</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4166892499193358</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10.413898938092885</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-19.714373704499501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-28.52494776075681</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-38.747457995486876</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-70EF-D440-8A53-CBAFEE12CA25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Лист1!$AA$51:$AF$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Лист1!$AA$54:$AF$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>11.686951364175576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.4125148279952384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-12.64062870699879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-21.997390272835091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-31.354151838671385</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-42.582265717674936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-70EF-D440-8A53-CBAFEE12CA25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="307417039"/>
+        <c:axId val="307439119"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="307417039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="307439119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="307439119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="307417039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
@@ -1071,7 +1770,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1089,16 +1788,16 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
+    <a:xfrm>
+      <a:off x="0" y="0"/>
+      <a:ext cx="0" cy="0"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
@@ -2247,23 +2946,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Диаграмма 4">
+        <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC44EDA6-D932-4AB5-7E20-95283DEEE040}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06BB8411-4B36-464E-AEB8-3E495D56552E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2283,27 +2982,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Диаграмма 5">
+        <xdr:cNvPr id="7" name="Диаграмма 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE884126-827D-E95F-C83E-2B542357A53A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF404B17-7871-8248-8916-C753AA368889}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2317,7 +3018,139 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1016000</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>868680</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13D8E599-2A28-C241-BF52-CE5A880BADA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="51">
+          <cell r="AA51">
+            <v>5</v>
+          </cell>
+          <cell r="AB51">
+            <v>12</v>
+          </cell>
+          <cell r="AC51">
+            <v>18</v>
+          </cell>
+          <cell r="AD51">
+            <v>23</v>
+          </cell>
+          <cell r="AE51">
+            <v>28</v>
+          </cell>
+          <cell r="AF51">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="AA52">
+            <v>7.6647607229927202</v>
+          </cell>
+          <cell r="AB52">
+            <v>-4.2417189059098126</v>
+          </cell>
+          <cell r="AC52">
+            <v>-14.867358475904695</v>
+          </cell>
+          <cell r="AD52">
+            <v>-24.280406841170681</v>
+          </cell>
+          <cell r="AE52">
+            <v>-34.18335591658596</v>
+          </cell>
+          <cell r="AF52">
+            <v>-46.417073439862996</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="AA53">
+            <v>15.70914200535843</v>
+          </cell>
+          <cell r="AB53">
+            <v>1.4166892499193358</v>
+          </cell>
+          <cell r="AC53">
+            <v>-10.413898938092885</v>
+          </cell>
+          <cell r="AD53">
+            <v>-19.714373704499501</v>
+          </cell>
+          <cell r="AE53">
+            <v>-28.52494776075681</v>
+          </cell>
+          <cell r="AF53">
+            <v>-38.747457995486876</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="AA54">
+            <v>11.686951364175576</v>
+          </cell>
+          <cell r="AB54">
+            <v>-1.4125148279952384</v>
+          </cell>
+          <cell r="AC54">
+            <v>-12.64062870699879</v>
+          </cell>
+          <cell r="AD54">
+            <v>-21.997390272835091</v>
+          </cell>
+          <cell r="AE54">
+            <v>-31.354151838671385</v>
+          </cell>
+          <cell r="AF54">
+            <v>-42.582265717674936</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2617,28 +3450,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DCC99B-EDBB-481C-8A26-B6D3FDF71907}">
-  <dimension ref="A1:AI57"/>
+  <dimension ref="A1:AI102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView tabSelected="1" topLeftCell="Q53" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.6640625" customWidth="1"/>
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="21.33203125" customWidth="1"/>
     <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.5" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9.6640625" customWidth="1"/>
-    <col min="30" max="32" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -2646,7 +3480,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2681,7 +3515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2710,7 +3544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2745,7 +3579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2777,7 +3611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2795,7 +3629,36 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7">
+        <f>B3*B3</f>
+        <v>123.21</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:G7" si="2">C3*C3</f>
+        <v>0.25</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>222.01000000000002</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>408.03999999999996</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>1075.8399999999999</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2824,7 +3687,7 @@
         <v>-98.3</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C11">
         <f>SUM(B2:G2)</f>
         <v>120</v>
@@ -2841,7 +3704,7 @@
         <v>-3017.7</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
@@ -2854,7 +3717,7 @@
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>22</v>
       </c>
@@ -2878,7 +3741,7 @@
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -2906,7 +3769,7 @@
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
     </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -2930,30 +3793,30 @@
         <v>5</v>
       </c>
       <c r="AB17" s="2">
-        <f t="shared" ref="AB17:AF17" si="2">C2</f>
+        <f t="shared" ref="AB17:AF17" si="3">C2</f>
         <v>12</v>
       </c>
       <c r="AC17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="AD17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="AE17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="AF17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
     </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="M18" t="s">
         <v>44</v>
       </c>
@@ -2970,30 +3833,30 @@
         <v>11.686951364175576</v>
       </c>
       <c r="AB18" s="3">
-        <f t="shared" ref="AB18:AF18" si="3">$N$17+$N$18*AB17</f>
+        <f t="shared" ref="AB18:AF18" si="4">$N$17+$N$18*AB17</f>
         <v>-1.4125148279952384</v>
       </c>
       <c r="AC18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-12.64062870699879</v>
       </c>
       <c r="AD18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-21.997390272835091</v>
       </c>
       <c r="AE18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-31.354151838671385</v>
       </c>
       <c r="AF18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-42.582265717674936</v>
       </c>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
     </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
@@ -3006,7 +3869,7 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
     </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
@@ -3019,7 +3882,7 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
     </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>21</v>
       </c>
@@ -3040,30 +3903,30 @@
         <v>-0.58695136417557592</v>
       </c>
       <c r="AB21" s="3">
-        <f t="shared" ref="AB21:AF21" si="4">C3-AB18</f>
+        <f t="shared" ref="AB21:AF21" si="5">C3-AB18</f>
         <v>1.9125148279952384</v>
       </c>
       <c r="AC21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.2593712930012106</v>
       </c>
       <c r="AD21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7973902728350915</v>
       </c>
       <c r="AE21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.4458481613286125</v>
       </c>
       <c r="AF21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.58226571767493596</v>
       </c>
       <c r="AG21" s="3"/>
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
     </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C22">
         <f>-SUM(B2:G2)</f>
         <v>-120</v>
@@ -3081,30 +3944,30 @@
         <v>0.34451190390756953</v>
       </c>
       <c r="AB22" s="3">
-        <f t="shared" ref="AB22:AF22" si="5">AB21*AB21</f>
+        <f t="shared" ref="AB22:AF22" si="6">AB21*AB21</f>
         <v>3.6577129673016562</v>
       </c>
       <c r="AC22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.1047586396379625</v>
       </c>
       <c r="AD22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.2306117928822045</v>
       </c>
       <c r="AE22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0904769056173294</v>
       </c>
       <c r="AF22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.33903336597950823</v>
       </c>
       <c r="AG22" s="3"/>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
     </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
@@ -3117,7 +3980,7 @@
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
     </row>
-    <row r="24" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -3133,7 +3996,7 @@
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
     </row>
-    <row r="25" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -3161,7 +4024,7 @@
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
     </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C26" s="1">
         <v>-3.5587188612099648E-2</v>
       </c>
@@ -3180,7 +4043,7 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
     </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
@@ -3199,7 +4062,7 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
     </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
@@ -3220,7 +4083,7 @@
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
     </row>
-    <row r="29" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
@@ -3244,7 +4107,7 @@
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
     </row>
-    <row r="30" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="Q30" s="2"/>
       <c r="R30" s="2" t="s">
         <v>46</v>
@@ -3267,7 +4130,7 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
     </row>
-    <row r="31" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="Q31" s="2"/>
       <c r="R31" s="2" t="s">
         <v>45</v>
@@ -3288,7 +4151,28 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
-    <row r="32" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32">
+        <f>1/B6*SUM(B3:G3)</f>
+        <v>-16.383333333333333</v>
+      </c>
+      <c r="D32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32">
+        <f>B35-B33*B33</f>
+        <v>93.666666666666629</v>
+      </c>
+      <c r="G32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32">
+        <f>B36-B32*B32</f>
+        <v>330.47805555555556</v>
+      </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="2">
         <v>2.78</v>
@@ -3309,7 +4193,28 @@
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
     </row>
-    <row r="33" spans="17:35" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33">
+        <f>1/B6*SUM(B2:G2)</f>
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33">
+        <f>SQRT(E32)</f>
+        <v>9.6781540939719815</v>
+      </c>
+      <c r="G33" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33">
+        <f>SQRT(H32)</f>
+        <v>18.179055408781711</v>
+      </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
@@ -3335,7 +4240,14 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
     </row>
-    <row r="34" spans="17:35" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34">
+        <f>1/B6*SUM(B5:G5)</f>
+        <v>-502.94999999999993</v>
+      </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
@@ -3358,7 +4270,14 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
     </row>
-    <row r="35" spans="17:35" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35">
+        <f>1/B6*SUM(B4:G4)</f>
+        <v>493.66666666666663</v>
+      </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
@@ -3377,7 +4296,28 @@
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
     </row>
-    <row r="36" spans="17:35" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36">
+        <f>1/B6*SUM(B7:G7)</f>
+        <v>598.89166666666665</v>
+      </c>
+      <c r="D36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36">
+        <f>B34-B32*B33</f>
+        <v>-175.2833333333333</v>
+      </c>
+      <c r="G36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36">
+        <f>B32-(E39*H33)/(E33)*B33</f>
+        <v>21.043712930011871</v>
+      </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
@@ -3398,7 +4338,22 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
-    <row r="37" spans="17:35" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37">
+        <f>E36/(E32)</f>
+        <v>-1.8713523131672603</v>
+      </c>
+      <c r="I37">
+        <f>E36/(E33*H33) *(H33/E33)</f>
+        <v>-1.87135231316726</v>
+      </c>
+      <c r="J37">
+        <f>E39*(H33/E33)</f>
+        <v>-1.87135231316726</v>
+      </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
@@ -3432,7 +4387,7 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
     </row>
-    <row r="38" spans="17:35" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="Y38" s="2"/>
       <c r="Z38" s="2" t="s">
         <v>52</v>
@@ -3446,26 +4401,33 @@
         <v>1.0357118827297316</v>
       </c>
       <c r="AC38" s="3">
-        <f t="shared" ref="AC38:AF38" si="6">$AA$33+2*$AB$33*AC37+$AB$34*AC37*AC37</f>
+        <f t="shared" ref="AC38:AF38" si="7">$AA$33+2*$AB$33*AC37+$AB$34*AC37*AC37</f>
         <v>0.64157205420678887</v>
       </c>
       <c r="AD38" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.67441703991703461</v>
       </c>
       <c r="AE38" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.035711882729732</v>
       </c>
       <c r="AF38" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.9028195054802035</v>
       </c>
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
     </row>
-    <row r="39" spans="17:35" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39">
+        <f>E36/(E33*H33)</f>
+        <v>-0.99626936844005143</v>
+      </c>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
@@ -3478,7 +4440,7 @@
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
     </row>
-    <row r="41" spans="17:35" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="Z41" s="2" t="s">
         <v>42</v>
       </c>
@@ -3486,13 +4448,13 @@
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
     </row>
-    <row r="42" spans="17:35" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
     </row>
-    <row r="43" spans="17:35" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="Z43" s="2" t="s">
         <v>25</v>
       </c>
@@ -3511,7 +4473,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="17:35" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="Z44" s="2"/>
       <c r="AA44" s="2" t="s">
         <v>49</v>
@@ -3528,19 +4490,61 @@
         <v>26.05</v>
       </c>
     </row>
-    <row r="45" spans="17:35" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
     </row>
-    <row r="46" spans="17:35" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>12</v>
+      </c>
+      <c r="D46">
+        <v>18</v>
+      </c>
+      <c r="E46">
+        <v>23</v>
+      </c>
+      <c r="F46">
+        <v>28</v>
+      </c>
+      <c r="G46">
+        <v>34</v>
+      </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
     </row>
-    <row r="47" spans="17:35" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47">
+        <v>11.1</v>
+      </c>
+      <c r="C47">
+        <v>0.5</v>
+      </c>
+      <c r="D47">
+        <v>-14.9</v>
+      </c>
+      <c r="E47">
+        <v>-20.2</v>
+      </c>
+      <c r="F47">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="G47">
+        <v>-42</v>
+      </c>
       <c r="Z47" s="2" t="s">
         <v>26</v>
       </c>
@@ -3559,7 +4563,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="17:35" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AE48">
         <v>-2.1040000000000001</v>
       </c>
@@ -3570,7 +4574,10 @@
         <v>-1.6379999999999999</v>
       </c>
     </row>
-    <row r="49" spans="26:32" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>78</v>
+      </c>
       <c r="Z49" s="2" t="s">
         <v>51</v>
       </c>
@@ -3581,7 +4588,10 @@
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
     </row>
-    <row r="50" spans="26:32" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>72</v>
+      </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
@@ -3590,7 +4600,13 @@
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
     </row>
-    <row r="51" spans="26:32" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="Z51" s="2" t="s">
         <v>37</v>
       </c>
@@ -3599,19 +4615,19 @@
         <v>5</v>
       </c>
       <c r="AB51" s="2">
-        <f t="shared" ref="AB51:AE51" si="7">AB37</f>
+        <f t="shared" ref="AB51:AE51" si="8">AB37</f>
         <v>12</v>
       </c>
       <c r="AC51" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="AD51" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="AE51" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="AF51" s="2">
@@ -3619,7 +4635,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="26:32" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52">
+        <f>6089/300</f>
+        <v>20.296666666666667</v>
+      </c>
       <c r="Z52" s="2" t="s">
         <v>53</v>
       </c>
@@ -3628,27 +4654,38 @@
         <v>7.6647607229927202</v>
       </c>
       <c r="AB52" s="3">
-        <f t="shared" ref="AB52:AF52" si="8">AB18-$R$32*SQRT(AB38)</f>
+        <f t="shared" ref="AB52:AF52" si="9">AB18-$R$32*SQRT(AB38)</f>
         <v>-4.2417189059098126</v>
       </c>
       <c r="AC52" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-14.867358475904695</v>
       </c>
       <c r="AD52" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-24.280406841170681</v>
       </c>
       <c r="AE52" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-34.18335591658596</v>
       </c>
       <c r="AF52" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-46.417073439862996</v>
       </c>
     </row>
-    <row r="53" spans="26:32" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="E53" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53">
+        <f>-917/500</f>
+        <v>-1.8340000000000001</v>
+      </c>
       <c r="Z53" s="2" t="s">
         <v>54</v>
       </c>
@@ -3657,29 +4694,622 @@
         <v>15.70914200535843</v>
       </c>
       <c r="AB53" s="3">
-        <f t="shared" ref="AB53:AF53" si="9">AB18+$R$32*SQRT(AB38)</f>
+        <f t="shared" ref="AB53:AF53" si="10">AB18+$R$32*SQRT(AB38)</f>
         <v>1.4166892499193358</v>
       </c>
       <c r="AC53" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-10.413898938092885</v>
       </c>
       <c r="AD53" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-19.714373704499501</v>
       </c>
       <c r="AE53" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-28.52494776075681</v>
       </c>
       <c r="AF53" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-38.747457995486876</v>
       </c>
     </row>
-    <row r="57" spans="26:32" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="5"/>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>81</v>
+      </c>
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60">
+        <f>20.297-1.834*E60</f>
+        <v>11.127000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <v>12</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ref="F61:F67" si="11">20.297-1.834*E61</f>
+        <v>-1.7110000000000021</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="E62">
+        <v>18</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="11"/>
+        <v>-12.715</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="E63">
+        <v>23</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="11"/>
+        <v>-21.885000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="E64">
+        <v>28</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="11"/>
+        <v>-31.055000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E65">
+        <v>23</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="11"/>
+        <v>-21.885000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E66">
+        <v>28</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="11"/>
+        <v>-31.055000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E67">
+        <v>34</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="11"/>
+        <v>-42.058999999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72">
+        <f>COUNT(B73:G73)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>12</v>
+      </c>
+      <c r="D73">
+        <v>18</v>
+      </c>
+      <c r="E73">
+        <v>23</v>
+      </c>
+      <c r="F73">
+        <v>28</v>
+      </c>
+      <c r="G73">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74">
+        <v>11.1</v>
+      </c>
+      <c r="C74">
+        <v>0.5</v>
+      </c>
+      <c r="D74">
+        <v>-14.9</v>
+      </c>
+      <c r="E74">
+        <v>-20.2</v>
+      </c>
+      <c r="F74">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="G74">
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75">
+        <f>B73*B73</f>
+        <v>25</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ref="C75:G75" si="12">C73*C73</f>
+        <v>144</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="12"/>
+        <v>324</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="12"/>
+        <v>529</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="12"/>
+        <v>784</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="12"/>
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76">
+        <f>B73*B73*B73</f>
+        <v>125</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ref="C76:G76" si="13">C73*C73*C73</f>
+        <v>1728</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="13"/>
+        <v>5832</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="13"/>
+        <v>12167</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="13"/>
+        <v>21952</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="13"/>
+        <v>39304</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77">
+        <f>B73*B73*B73*B73</f>
+        <v>625</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ref="C77:G77" si="14">C73*C73*C73*C73</f>
+        <v>20736</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="14"/>
+        <v>104976</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="14"/>
+        <v>279841</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="14"/>
+        <v>614656</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="14"/>
+        <v>1336336</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78">
+        <f>B73*B74</f>
+        <v>55.5</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ref="C78:G78" si="15">C73*C74</f>
+        <v>6</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="15"/>
+        <v>-268.2</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="15"/>
+        <v>-464.59999999999997</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="15"/>
+        <v>-918.39999999999986</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="15"/>
+        <v>-1428</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79">
+        <f>B75*B74</f>
+        <v>277.5</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ref="C79:G79" si="16">C75*C74</f>
+        <v>72</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="16"/>
+        <v>-4827.6000000000004</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="16"/>
+        <v>-10685.8</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="16"/>
+        <v>-25715.199999999997</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="16"/>
+        <v>-48552</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82">
+        <f>E72</f>
+        <v>6</v>
+      </c>
+      <c r="C82">
+        <f>SUM(B73:G73)</f>
+        <v>120</v>
+      </c>
+      <c r="D82">
+        <f>SUM(B75:G75)</f>
+        <v>2962</v>
+      </c>
+      <c r="G82" t="s">
+        <v>86</v>
+      </c>
+      <c r="H82">
+        <f>SUM(B74:G74)</f>
+        <v>-98.3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <f>SUM(B73:G73)</f>
+        <v>120</v>
+      </c>
+      <c r="C83">
+        <f>SUM(B75:G75)</f>
+        <v>2962</v>
+      </c>
+      <c r="D83">
+        <f>SUM(B76:G76)</f>
+        <v>81108</v>
+      </c>
+      <c r="H83">
+        <f>SUM(B78:G78)</f>
+        <v>-3017.7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <f>SUM(B75:G75)</f>
+        <v>2962</v>
+      </c>
+      <c r="C84">
+        <f>SUM(B76:G76)</f>
+        <v>81108</v>
+      </c>
+      <c r="D84">
+        <f>SUM(B77:G77)</f>
+        <v>2357170</v>
+      </c>
+      <c r="H84">
+        <f>SUM(B79:G79)</f>
+        <v>-89431.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87">
+        <v>148445168</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88">
+        <f>1/B87</f>
+        <v>6.7364941107412805E-9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C89">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>87</v>
+      </c>
+      <c r="B91">
+        <v>2.7177029837700002</v>
+      </c>
+      <c r="C91">
+        <v>-0.28709930119999999</v>
+      </c>
+      <c r="D91">
+        <v>6.4637738799999999E-3</v>
+      </c>
+      <c r="H91" t="s">
+        <v>17</v>
+      </c>
+      <c r="I91">
+        <f>B74</f>
+        <v>11.1</v>
+      </c>
+      <c r="J91">
+        <f t="shared" ref="J91:N91" si="17">C74</f>
+        <v>0.5</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="17"/>
+        <v>-14.9</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="17"/>
+        <v>-20.2</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="17"/>
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="17"/>
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>-0.28709930119999999</v>
+      </c>
+      <c r="C92">
+        <v>3.6172117099999998E-2</v>
+      </c>
+      <c r="D92">
+        <v>-8.8388191000000004E-4</v>
+      </c>
+      <c r="H92" t="s">
+        <v>88</v>
+      </c>
+      <c r="I92">
+        <f>$B$96+$B$97*B73+$B$98*B73*B73</f>
+        <v>11.737850000000002</v>
+      </c>
+      <c r="J92">
+        <f t="shared" ref="J92:N92" si="18">$B$96+$B$97*C73+$B$98*C73*C73</f>
+        <v>-1.4265039999999973</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="18"/>
+        <v>-12.676383999999993</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="18"/>
+        <v>-22.027413999999997</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="18"/>
+        <v>-31.356743999999996</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="18"/>
+        <v>-42.523295999999995</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>6.4637738799999999E-3</v>
+      </c>
+      <c r="C93">
+        <v>-8.8388191000000004E-4</v>
+      </c>
+      <c r="D93">
+        <v>2.2715449999999999E-5</v>
+      </c>
+      <c r="H93" t="s">
+        <v>89</v>
+      </c>
+      <c r="I93">
+        <f>I91-I92</f>
+        <v>-0.63785000000000203</v>
+      </c>
+      <c r="J93">
+        <f t="shared" ref="J93:N93" si="19">J91-J92</f>
+        <v>1.9265039999999973</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="19"/>
+        <v>-2.2236160000000069</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="19"/>
+        <v>1.8274139999999974</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="19"/>
+        <v>-1.4432560000000016</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="19"/>
+        <v>0.52329599999999488</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H94" t="s">
+        <v>90</v>
+      </c>
+      <c r="I94">
+        <f>I93*I93</f>
+        <v>0.40685262250000259</v>
+      </c>
+      <c r="J94">
+        <f t="shared" ref="J94:N94" si="20">J93*J93</f>
+        <v>3.7114176620159895</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="20"/>
+        <v>4.944468115456031</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="20"/>
+        <v>3.3394419273959906</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="20"/>
+        <v>2.0829878815360048</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="20"/>
+        <v>0.27383870361599466</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96">
+        <v>21.167000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>-1.8879999999999999</v>
+      </c>
+      <c r="H97" t="s">
+        <v>91</v>
+      </c>
+      <c r="I97">
+        <f>SUM(I94:N94)</f>
+        <v>14.759006912520013</v>
+      </c>
+      <c r="K97" t="s">
+        <v>94</v>
+      </c>
+      <c r="L97">
+        <f>I102-I101</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>4.3399999999999998E-4</v>
+      </c>
+      <c r="K98" t="s">
+        <v>95</v>
+      </c>
+      <c r="L98">
+        <f>E72-I102-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H99" t="s">
+        <v>92</v>
+      </c>
+      <c r="I99">
+        <f>(AA25-I97)/I97 * (E72-2-1)/(2-1)</f>
+        <v>1.6461804349479647E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H100" t="s">
+        <v>93</v>
+      </c>
+      <c r="I100">
+        <v>18.510000000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H101" t="s">
+        <v>97</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H102" t="s">
+        <v>96</v>
+      </c>
+      <c r="I102">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
